--- a/экономика (/Lab_6_excel.xlsx
+++ b/экономика (/Lab_6_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Универ\9 СЕМЕСТР\Экономика предприятия\ЛР6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Desktop\кринж\экономика (\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -1401,7 +1401,7 @@
   <dimension ref="A1:IV33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3">
-        <v>850000</v>
+        <v>820000</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -1448,7 +1448,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1459,7 +1459,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="B8" s="3">
         <f>ROUND((B1/B4),0)</f>
-        <v>47222</v>
+        <v>51250</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="E8" s="3">
         <f>ROUND(B18*11*2*0.9*0.9*4075,0)</f>
-        <v>871398</v>
+        <v>944015</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B9" s="3">
         <f>ROUND(B1/(B5*2),0)</f>
-        <v>13281</v>
+        <v>13667</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B10" s="3">
         <f>B8*32</f>
-        <v>1511104</v>
+        <v>1640000</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="2" t="s">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="E10" s="3">
         <f>B2*B18</f>
-        <v>1800000</v>
+        <v>1950000</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B11" s="3">
         <f>B9*32</f>
-        <v>424992</v>
+        <v>437344</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="2" t="s">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B12" s="3">
         <f>ROUND((B10*0.18),0)</f>
-        <v>271999</v>
+        <v>295200</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="2" t="s">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="E12" s="3">
         <f>E10*0.06</f>
-        <v>108000</v>
+        <v>117000</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B13" s="3">
         <f>ROUND(B11*0.18,0)</f>
-        <v>76499</v>
+        <v>78722</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="2" t="s">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="B14" s="3">
         <f>ROUND((B10+B12)*0.3,0)</f>
-        <v>534931</v>
+        <v>580560</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="2" t="s">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="E14" s="3">
         <f>ROUND(0.15*E8,0)</f>
-        <v>130710</v>
+        <v>141602</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B15" s="3">
         <f>ROUND((B11+B13)*0.3,0)</f>
-        <v>150447</v>
+        <v>154820</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="2" t="s">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="B16" s="3">
         <f>ROUND(B1/B4,0)</f>
-        <v>47222</v>
+        <v>51250</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="2" t="s">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="E16" s="3">
         <f>ROUND(B10+B12+B14+E12+E8+E14,0)</f>
-        <v>3428142</v>
+        <v>3718377</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B17" s="3">
         <f>ROUND(B1/B5,0)</f>
-        <v>26563</v>
+        <v>27333</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="2" t="s">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="E17" s="3">
         <f>ROUND(B11+B13+B15+E13+E9+E15,0)</f>
-        <v>1831095</v>
+        <v>1850043</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B18" s="3">
         <f>ROUND(B16/4075,0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B22" s="3">
         <f>9500*B18*20</f>
-        <v>2280000</v>
+        <v>2470000</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="2" t="s">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="E22" s="3">
         <f>E10/10</f>
-        <v>180000</v>
+        <v>195000</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B24" s="3">
         <f>70000+E10+B22+E22</f>
-        <v>4330000</v>
+        <v>4685000</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B28" s="3">
         <f>E16+B24*0.15</f>
-        <v>4077642</v>
+        <v>4421127</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="2" t="s">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="E28" s="3">
         <f>ROUND((B5/B4),2)</f>
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B29" s="3">
         <f>E17+B25*0.15</f>
-        <v>2659245</v>
+        <v>2678193</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="2" t="s">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="E29" s="3">
         <f>ROUND((B30-E17)/(B25-B32),2)</f>
-        <v>-1.95</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="B30" s="3">
         <f>ROUND($E$28*E16,0)</f>
-        <v>6102093</v>
+        <v>6990549</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="2" t="s">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="E30" s="3">
         <f>ROUND((B25-B24)/(B30-E17),2)</f>
-        <v>0.28000000000000003</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="B31" s="3">
         <f>ROUND($E$28*E17,0)</f>
-        <v>3259349</v>
+        <v>3478081</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="2" t="s">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="B32" s="3">
         <f>$E$28*B24</f>
-        <v>7707400</v>
+        <v>8807800</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="2" t="s">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="E32" s="3">
         <f>ROUND((B28*E28)-B29,0)</f>
-        <v>4598958</v>
+        <v>5633526</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B33" s="3">
         <f>$E$28*B25</f>
-        <v>9827380</v>
+        <v>10379480</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1869,7 +1869,7 @@
     <mergeCell ref="A7:E7"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
